--- a/biology/Zoologie/Bactrosaurus/Bactrosaurus.xlsx
+++ b/biology/Zoologie/Bactrosaurus/Bactrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bactrosaurus est un genre éteint de dinosaures ornithopodes, un membre basal  de la super-famille des hadrosauroïdes ayant vécu dans l'est de l'Asie, et en particulier en Mongolie et en Chine, au cours du Crétacé supérieur (100 - 72 millions d'années)[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bactrosaurus est un genre éteint de dinosaures ornithopodes, un membre basal  de la super-famille des hadrosauroïdes ayant vécu dans l'est de l'Asie, et en particulier en Mongolie et en Chine, au cours du Crétacé supérieur (100 - 72 millions d'années). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom de genre Bactrosaurus vient du grec : « baktêria » (bâton) et  « saurus » (lézard) en raison de la forme d'une partie des épines neurales que portent certaines vertèbres de l'animal.
 </t>
@@ -542,13 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bactrosaurus johnsoni, l'espèce type et seule espèce reconnue de ce genre[3], possédait une tête plate et basse, sans crête, comparable à celle des iguanodons et mesurait environ 6 mètres de longueur. Lorsqu'elle était à quatre pattes, sa hauteur atteignait environ 2 mètres, avec des fémurs de 80 centimètres de long. La masse de l'animal était d'environ 1,1 à 1,5 tonne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bactrosaurus johnsoni, l'espèce type et seule espèce reconnue de ce genre, possédait une tête plate et basse, sans crête, comparable à celle des iguanodons et mesurait environ 6 mètres de longueur. Lorsqu'elle était à quatre pattes, sa hauteur atteignait environ 2 mètres, avec des fémurs de 80 centimètres de long. La masse de l'animal était d'environ 1,1 à 1,5 tonne.
 On n'a pas retrouvé de main parmi les fossiles connus, on ne sait donc pas s'elle avait un pouce en éperon (comme l'iguanodon) ou bien une main à quatre doigts (comme les hadrosauridés).
-Pathologie
-En 2003, la présence de tumeurs, dont des hémangiomes, fibromes, cancers métastatiques et des ostéoblastomes a été identifiée sur les vertèbres de Bactrosaurus par tomodensitométrie et fluoroscopie[4]. 
-Ces types de tumeurs ont été observés également sur les genres Brachylophosaurus, Gilmoreosaurus et Edmontosaurus[4].
 </t>
         </is>
       </c>
@@ -574,12 +587,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pathologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, la présence de tumeurs, dont des hémangiomes, fibromes, cancers métastatiques et des ostéoblastomes a été identifiée sur les vertèbres de Bactrosaurus par tomodensitométrie et fluoroscopie. 
+Ces types de tumeurs ont été observés également sur les genres Brachylophosaurus, Gilmoreosaurus et Edmontosaurus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bactrosaurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bactrosaurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les études phylogénétiques concordent pour placer Bactrosaurus comme un membre basal des Hadrosauroidea[5],[6],[7]. Une analyse phylogénétique de 2016, établie par Prieto-Márquez et ses collègues, confirme cette évaluation et conduit au cladogramme suivant[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études phylogénétiques concordent pour placer Bactrosaurus comme un membre basal des Hadrosauroidea. Une analyse phylogénétique de 2016, établie par Prieto-Márquez et ses collègues, confirme cette évaluation et conduit au cladogramme suivant :
 </t>
         </is>
       </c>
